--- a/Files/Deliveries.xlsx
+++ b/Files/Deliveries.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="254">
   <si>
     <t>SID</t>
   </si>
@@ -88,6 +88,696 @@
   </si>
   <si>
     <t>477.94</t>
+  </si>
+  <si>
+    <t>420.13</t>
+  </si>
+  <si>
+    <t>492.04</t>
+  </si>
+  <si>
+    <t>377.58</t>
+  </si>
+  <si>
+    <t>65.65</t>
+  </si>
+  <si>
+    <t>121.53</t>
+  </si>
+  <si>
+    <t>24.33</t>
+  </si>
+  <si>
+    <t>488.41</t>
+  </si>
+  <si>
+    <t>448.25</t>
+  </si>
+  <si>
+    <t>400.53</t>
+  </si>
+  <si>
+    <t>446.58</t>
+  </si>
+  <si>
+    <t>244.30</t>
+  </si>
+  <si>
+    <t>218.19</t>
+  </si>
+  <si>
+    <t>381.51</t>
+  </si>
+  <si>
+    <t>107.84</t>
+  </si>
+  <si>
+    <t>126.85</t>
+  </si>
+  <si>
+    <t>217.31</t>
+  </si>
+  <si>
+    <t>409.70</t>
+  </si>
+  <si>
+    <t>356.93</t>
+  </si>
+  <si>
+    <t>157.00</t>
+  </si>
+  <si>
+    <t>204.02</t>
+  </si>
+  <si>
+    <t>434.45</t>
+  </si>
+  <si>
+    <t>32.66</t>
+  </si>
+  <si>
+    <t>236.91</t>
+  </si>
+  <si>
+    <t>401.53</t>
+  </si>
+  <si>
+    <t>314.59</t>
+  </si>
+  <si>
+    <t>171.86</t>
+  </si>
+  <si>
+    <t>113.17</t>
+  </si>
+  <si>
+    <t>161.35</t>
+  </si>
+  <si>
+    <t>296.11</t>
+  </si>
+  <si>
+    <t>49.91</t>
+  </si>
+  <si>
+    <t>207.02</t>
+  </si>
+  <si>
+    <t>54.56</t>
+  </si>
+  <si>
+    <t>63.88</t>
+  </si>
+  <si>
+    <t>355.93</t>
+  </si>
+  <si>
+    <t>115.48</t>
+  </si>
+  <si>
+    <t>42.04</t>
+  </si>
+  <si>
+    <t>316.70</t>
+  </si>
+  <si>
+    <t>160.50</t>
+  </si>
+  <si>
+    <t>495.33</t>
+  </si>
+  <si>
+    <t>150.08</t>
+  </si>
+  <si>
+    <t>447.34</t>
+  </si>
+  <si>
+    <t>74.71</t>
+  </si>
+  <si>
+    <t>124.33</t>
+  </si>
+  <si>
+    <t>388.43</t>
+  </si>
+  <si>
+    <t>452.17</t>
+  </si>
+  <si>
+    <t>365.68</t>
+  </si>
+  <si>
+    <t>101.39</t>
+  </si>
+  <si>
+    <t>170.49</t>
+  </si>
+  <si>
+    <t>46.05</t>
+  </si>
+  <si>
+    <t>466.12</t>
+  </si>
+  <si>
+    <t>269.75</t>
+  </si>
+  <si>
+    <t>206.08</t>
+  </si>
+  <si>
+    <t>253.24</t>
+  </si>
+  <si>
+    <t>413.35</t>
+  </si>
+  <si>
+    <t>495.81</t>
+  </si>
+  <si>
+    <t>366.73</t>
+  </si>
+  <si>
+    <t>37.26</t>
+  </si>
+  <si>
+    <t>359.18</t>
+  </si>
+  <si>
+    <t>99.28</t>
+  </si>
+  <si>
+    <t>99.85</t>
+  </si>
+  <si>
+    <t>279.06</t>
+  </si>
+  <si>
+    <t>429.10</t>
+  </si>
+  <si>
+    <t>109.95</t>
+  </si>
+  <si>
+    <t>110.14</t>
+  </si>
+  <si>
+    <t>406.51</t>
+  </si>
+  <si>
+    <t>165.05</t>
+  </si>
+  <si>
+    <t>461.46</t>
+  </si>
+  <si>
+    <t>34.92</t>
+  </si>
+  <si>
+    <t>188.51</t>
+  </si>
+  <si>
+    <t>180.30</t>
+  </si>
+  <si>
+    <t>85.19</t>
+  </si>
+  <si>
+    <t>201.82</t>
+  </si>
+  <si>
+    <t>116.01</t>
+  </si>
+  <si>
+    <t>195.49</t>
+  </si>
+  <si>
+    <t>423.89</t>
+  </si>
+  <si>
+    <t>459.80</t>
+  </si>
+  <si>
+    <t>296.48</t>
+  </si>
+  <si>
+    <t>250.43</t>
+  </si>
+  <si>
+    <t>327.41</t>
+  </si>
+  <si>
+    <t>190.74</t>
+  </si>
+  <si>
+    <t>408.69</t>
+  </si>
+  <si>
+    <t>156.77</t>
+  </si>
+  <si>
+    <t>397.06</t>
+  </si>
+  <si>
+    <t>294.10</t>
+  </si>
+  <si>
+    <t>108.08</t>
+  </si>
+  <si>
+    <t>390.85</t>
+  </si>
+  <si>
+    <t>387.63</t>
+  </si>
+  <si>
+    <t>92.23</t>
+  </si>
+  <si>
+    <t>165.68</t>
+  </si>
+  <si>
+    <t>140.74</t>
+  </si>
+  <si>
+    <t>367.49</t>
+  </si>
+  <si>
+    <t>487.22</t>
+  </si>
+  <si>
+    <t>203.46</t>
+  </si>
+  <si>
+    <t>108.09</t>
+  </si>
+  <si>
+    <t>223.87</t>
+  </si>
+  <si>
+    <t>289.99</t>
+  </si>
+  <si>
+    <t>213.32</t>
+  </si>
+  <si>
+    <t>396.93</t>
+  </si>
+  <si>
+    <t>258.95</t>
+  </si>
+  <si>
+    <t>295.54</t>
+  </si>
+  <si>
+    <t>246.99</t>
+  </si>
+  <si>
+    <t>95.39</t>
+  </si>
+  <si>
+    <t>328.15</t>
+  </si>
+  <si>
+    <t>84.29</t>
+  </si>
+  <si>
+    <t>282.13</t>
+  </si>
+  <si>
+    <t>349.72</t>
+  </si>
+  <si>
+    <t>441.22</t>
+  </si>
+  <si>
+    <t>290.80</t>
+  </si>
+  <si>
+    <t>461.30</t>
+  </si>
+  <si>
+    <t>232.75</t>
+  </si>
+  <si>
+    <t>284.65</t>
+  </si>
+  <si>
+    <t>188.19</t>
+  </si>
+  <si>
+    <t>176.04</t>
+  </si>
+  <si>
+    <t>204.91</t>
+  </si>
+  <si>
+    <t>239.50</t>
+  </si>
+  <si>
+    <t>443.69</t>
+  </si>
+  <si>
+    <t>180.08</t>
+  </si>
+  <si>
+    <t>178.56</t>
+  </si>
+  <si>
+    <t>132.53</t>
+  </si>
+  <si>
+    <t>429.23</t>
+  </si>
+  <si>
+    <t>126.73</t>
+  </si>
+  <si>
+    <t>382.28</t>
+  </si>
+  <si>
+    <t>236.47</t>
+  </si>
+  <si>
+    <t>320.73</t>
+  </si>
+  <si>
+    <t>402.83</t>
+  </si>
+  <si>
+    <t>46.04</t>
+  </si>
+  <si>
+    <t>318.96</t>
+  </si>
+  <si>
+    <t>144.14</t>
+  </si>
+  <si>
+    <t>42.65</t>
+  </si>
+  <si>
+    <t>99.61</t>
+  </si>
+  <si>
+    <t>214.83</t>
+  </si>
+  <si>
+    <t>441.12</t>
+  </si>
+  <si>
+    <t>32.26</t>
+  </si>
+  <si>
+    <t>331.08</t>
+  </si>
+  <si>
+    <t>46.12</t>
+  </si>
+  <si>
+    <t>495.25</t>
+  </si>
+  <si>
+    <t>21.61</t>
+  </si>
+  <si>
+    <t>203.08</t>
+  </si>
+  <si>
+    <t>222.88</t>
+  </si>
+  <si>
+    <t>123.83</t>
+  </si>
+  <si>
+    <t>405.33</t>
+  </si>
+  <si>
+    <t>284.73</t>
+  </si>
+  <si>
+    <t>232.95</t>
+  </si>
+  <si>
+    <t>67.67</t>
+  </si>
+  <si>
+    <t>203.51</t>
+  </si>
+  <si>
+    <t>150.19</t>
+  </si>
+  <si>
+    <t>140.48</t>
+  </si>
+  <si>
+    <t>428.61</t>
+  </si>
+  <si>
+    <t>212.32</t>
+  </si>
+  <si>
+    <t>190.39</t>
+  </si>
+  <si>
+    <t>354.42</t>
+  </si>
+  <si>
+    <t>463.03</t>
+  </si>
+  <si>
+    <t>326.88</t>
+  </si>
+  <si>
+    <t>496.41</t>
+  </si>
+  <si>
+    <t>348.16</t>
+  </si>
+  <si>
+    <t>387.88</t>
+  </si>
+  <si>
+    <t>382.54</t>
+  </si>
+  <si>
+    <t>269.17</t>
+  </si>
+  <si>
+    <t>388.48</t>
+  </si>
+  <si>
+    <t>344.05</t>
+  </si>
+  <si>
+    <t>101.82</t>
+  </si>
+  <si>
+    <t>434.49</t>
+  </si>
+  <si>
+    <t>43.62</t>
+  </si>
+  <si>
+    <t>111.24</t>
+  </si>
+  <si>
+    <t>319.39</t>
+  </si>
+  <si>
+    <t>367.75</t>
+  </si>
+  <si>
+    <t>150.69</t>
+  </si>
+  <si>
+    <t>398.72</t>
+  </si>
+  <si>
+    <t>18.48</t>
+  </si>
+  <si>
+    <t>384.05</t>
+  </si>
+  <si>
+    <t>192.84</t>
+  </si>
+  <si>
+    <t>74.99</t>
+  </si>
+  <si>
+    <t>277.32</t>
+  </si>
+  <si>
+    <t>474.11</t>
+  </si>
+  <si>
+    <t>424.47</t>
+  </si>
+  <si>
+    <t>25.31</t>
+  </si>
+  <si>
+    <t>499.56</t>
+  </si>
+  <si>
+    <t>203.41</t>
+  </si>
+  <si>
+    <t>159.26</t>
+  </si>
+  <si>
+    <t>437.44</t>
+  </si>
+  <si>
+    <t>256.59</t>
+  </si>
+  <si>
+    <t>433.22</t>
+  </si>
+  <si>
+    <t>474.45</t>
+  </si>
+  <si>
+    <t>484.03</t>
+  </si>
+  <si>
+    <t>43.31</t>
+  </si>
+  <si>
+    <t>32.64</t>
+  </si>
+  <si>
+    <t>172.32</t>
+  </si>
+  <si>
+    <t>362.10</t>
+  </si>
+  <si>
+    <t>484.34</t>
+  </si>
+  <si>
+    <t>431.81</t>
+  </si>
+  <si>
+    <t>418.43</t>
+  </si>
+  <si>
+    <t>413.50</t>
+  </si>
+  <si>
+    <t>102.79</t>
+  </si>
+  <si>
+    <t>429.62</t>
+  </si>
+  <si>
+    <t>458.85</t>
+  </si>
+  <si>
+    <t>488.36</t>
+  </si>
+  <si>
+    <t>494.30</t>
+  </si>
+  <si>
+    <t>359.89</t>
+  </si>
+  <si>
+    <t>21.25</t>
+  </si>
+  <si>
+    <t>287.22</t>
+  </si>
+  <si>
+    <t>308.37</t>
+  </si>
+  <si>
+    <t>356.26</t>
+  </si>
+  <si>
+    <t>392.66</t>
+  </si>
+  <si>
+    <t>232.93</t>
+  </si>
+  <si>
+    <t>487.56</t>
+  </si>
+  <si>
+    <t>187.11</t>
+  </si>
+  <si>
+    <t>124.37</t>
+  </si>
+  <si>
+    <t>170.59</t>
+  </si>
+  <si>
+    <t>493.99</t>
+  </si>
+  <si>
+    <t>141.47</t>
+  </si>
+  <si>
+    <t>454.58</t>
+  </si>
+  <si>
+    <t>395.52</t>
+  </si>
+  <si>
+    <t>341.60</t>
+  </si>
+  <si>
+    <t>286.15</t>
+  </si>
+  <si>
+    <t>465.38</t>
+  </si>
+  <si>
+    <t>472.84</t>
+  </si>
+  <si>
+    <t>422.53</t>
+  </si>
+  <si>
+    <t>319.99</t>
+  </si>
+  <si>
+    <t>275.32</t>
+  </si>
+  <si>
+    <t>287.73</t>
+  </si>
+  <si>
+    <t>398.03</t>
+  </si>
+  <si>
+    <t>495.29</t>
+  </si>
+  <si>
+    <t>402.75</t>
+  </si>
+  <si>
+    <t>63.86</t>
+  </si>
+  <si>
+    <t>327.65</t>
+  </si>
+  <si>
+    <t>386.20</t>
+  </si>
+  <si>
+    <t>126.07</t>
+  </si>
+  <si>
+    <t>56.95</t>
+  </si>
+  <si>
+    <t>52.77</t>
+  </si>
+  <si>
+    <t>28.71</t>
   </si>
 </sst>
 </file>
@@ -161,13 +851,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -462,10 +1153,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A2" sqref="A2:E254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -492,10 +1183,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>114</v>
+        <v>468</v>
       </c>
       <c r="B2">
-        <v>72</v>
+        <v>303</v>
       </c>
       <c r="C2">
         <v>144</v>
@@ -504,39 +1195,41 @@
         <v>5</v>
       </c>
       <c r="E2" s="1">
-        <v>41340</v>
+        <v>41255</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>113</v>
+        <v>714</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>603</v>
       </c>
       <c r="C3">
         <v>35</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2">
+        <v>42088</v>
+      </c>
       <c r="E3" s="1">
-        <v>41340</v>
+        <v>41752</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>114</v>
+        <v>812</v>
       </c>
       <c r="B4">
-        <v>72</v>
+        <v>648</v>
       </c>
       <c r="C4">
-        <v>2300</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="1">
-        <v>41340</v>
+        <v>41515</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -544,7 +1237,7 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>68</v>
+        <v>265</v>
       </c>
       <c r="C5">
         <v>22</v>
@@ -553,15 +1246,15 @@
         <v>7</v>
       </c>
       <c r="E5" s="1">
-        <v>41340</v>
+        <v>42025</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>115</v>
+        <v>1036</v>
       </c>
       <c r="B6">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="C6">
         <v>250</v>
@@ -575,10 +1268,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>120</v>
+        <v>226</v>
       </c>
       <c r="B7">
-        <v>70</v>
+        <v>1005</v>
       </c>
       <c r="C7">
         <v>37</v>
@@ -587,15 +1280,15 @@
         <v>9</v>
       </c>
       <c r="E7" s="1">
-        <v>41340</v>
+        <v>41350</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="B8">
-        <v>70</v>
+        <v>862</v>
       </c>
       <c r="C8">
         <v>8</v>
@@ -604,15 +1297,15 @@
         <v>10</v>
       </c>
       <c r="E8" s="1">
-        <v>41340</v>
+        <v>41556</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>121</v>
+        <v>779</v>
       </c>
       <c r="B9">
-        <v>71</v>
+        <v>748</v>
       </c>
       <c r="C9">
         <v>33</v>
@@ -621,15 +1314,15 @@
         <v>11</v>
       </c>
       <c r="E9" s="1">
-        <v>41340</v>
+        <v>41911</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>123</v>
+        <v>1087</v>
       </c>
       <c r="B10">
-        <v>72</v>
+        <v>509</v>
       </c>
       <c r="C10">
         <v>45</v>
@@ -638,15 +1331,15 @@
         <v>12</v>
       </c>
       <c r="E10" s="1">
-        <v>41340</v>
+        <v>41281</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>120</v>
+        <v>730</v>
       </c>
       <c r="B11">
-        <v>74</v>
+        <v>999</v>
       </c>
       <c r="C11">
         <v>31</v>
@@ -655,15 +1348,15 @@
         <v>13</v>
       </c>
       <c r="E11" s="1">
-        <v>41340</v>
+        <v>41074</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>114</v>
+        <v>418</v>
       </c>
       <c r="B12">
-        <v>81</v>
+        <v>644</v>
       </c>
       <c r="C12">
         <v>45</v>
@@ -672,15 +1365,15 @@
         <v>14</v>
       </c>
       <c r="E12" s="1">
-        <v>41340</v>
+        <v>41362</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>123</v>
+        <v>899</v>
       </c>
       <c r="B13">
-        <v>80</v>
+        <v>654</v>
       </c>
       <c r="C13">
         <v>36</v>
@@ -689,15 +1382,15 @@
         <v>15</v>
       </c>
       <c r="E13" s="1">
-        <v>41340</v>
+        <v>41779</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>125</v>
+        <v>875</v>
       </c>
       <c r="B14">
-        <v>72</v>
+        <v>827</v>
       </c>
       <c r="C14">
         <v>41</v>
@@ -706,15 +1399,15 @@
         <v>16</v>
       </c>
       <c r="E14" s="1">
-        <v>41340</v>
+        <v>40943</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>12</v>
+        <v>615</v>
       </c>
       <c r="B15">
-        <v>82</v>
+        <v>431</v>
       </c>
       <c r="C15">
         <v>64</v>
@@ -723,15 +1416,15 @@
         <v>17</v>
       </c>
       <c r="E15" s="1">
-        <v>41340</v>
+        <v>41585</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>126</v>
+        <v>961</v>
       </c>
       <c r="B16">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="C16">
         <v>156</v>
@@ -740,15 +1433,15 @@
         <v>18</v>
       </c>
       <c r="E16" s="1">
-        <v>41225</v>
+        <v>41235</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>127</v>
+        <v>269</v>
       </c>
       <c r="B17">
-        <v>70</v>
+        <v>480</v>
       </c>
       <c r="C17">
         <v>62</v>
@@ -757,15 +1450,15 @@
         <v>19</v>
       </c>
       <c r="E17" s="1">
-        <v>41225</v>
+        <v>41315</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>129</v>
+        <v>968</v>
       </c>
       <c r="B18">
-        <v>78</v>
+        <v>220</v>
       </c>
       <c r="C18">
         <v>424</v>
@@ -774,15 +1467,15 @@
         <v>20</v>
       </c>
       <c r="E18" s="1">
-        <v>41225</v>
+        <v>40953</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>120</v>
+        <v>1129</v>
       </c>
       <c r="B19">
-        <v>81</v>
+        <v>566</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -791,15 +1484,15 @@
         <v>21</v>
       </c>
       <c r="E19" s="1">
-        <v>41225</v>
+        <v>41247</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>118</v>
+        <v>923</v>
       </c>
       <c r="B20">
-        <v>89</v>
+        <v>229</v>
       </c>
       <c r="C20">
         <v>507</v>
@@ -808,15 +1501,15 @@
         <v>22</v>
       </c>
       <c r="E20" s="1">
-        <v>41225</v>
+        <v>41962</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>130</v>
+        <v>547</v>
       </c>
       <c r="B21">
-        <v>67</v>
+        <v>670</v>
       </c>
       <c r="C21">
         <v>17</v>
@@ -825,7 +1518,3968 @@
         <v>23</v>
       </c>
       <c r="E21" s="1">
-        <v>41225</v>
+        <v>40921</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>502</v>
+      </c>
+      <c r="B22">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="1">
+        <v>41114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>705</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>33</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="1">
+        <v>40927</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>1166</v>
+      </c>
+      <c r="B24">
+        <v>527</v>
+      </c>
+      <c r="C24">
+        <v>47</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="1">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>900</v>
+      </c>
+      <c r="B25">
+        <v>72</v>
+      </c>
+      <c r="C25">
+        <v>39</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="1">
+        <v>41374</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>773</v>
+      </c>
+      <c r="B26">
+        <v>877</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="1">
+        <v>41030</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>1083</v>
+      </c>
+      <c r="B27">
+        <v>1076</v>
+      </c>
+      <c r="C27">
+        <v>328</v>
+      </c>
+      <c r="D27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="1">
+        <v>41203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>336</v>
+      </c>
+      <c r="B28">
+        <v>109</v>
+      </c>
+      <c r="C28">
+        <v>34</v>
+      </c>
+      <c r="D28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="1">
+        <v>40918</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>871</v>
+      </c>
+      <c r="B29">
+        <v>228</v>
+      </c>
+      <c r="C29">
+        <v>414</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="1">
+        <v>41438</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>770</v>
+      </c>
+      <c r="B30">
+        <v>451</v>
+      </c>
+      <c r="C30">
+        <v>297</v>
+      </c>
+      <c r="D30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="1">
+        <v>42024</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>780</v>
+      </c>
+      <c r="B31">
+        <v>914</v>
+      </c>
+      <c r="C31">
+        <v>345</v>
+      </c>
+      <c r="D31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="1">
+        <v>41197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>1111</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="1">
+        <v>41370</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>79</v>
+      </c>
+      <c r="B33">
+        <v>1155</v>
+      </c>
+      <c r="C33">
+        <v>508</v>
+      </c>
+      <c r="D33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="1">
+        <v>41437</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>787</v>
+      </c>
+      <c r="B34">
+        <v>313</v>
+      </c>
+      <c r="C34">
+        <v>445</v>
+      </c>
+      <c r="D34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="1">
+        <v>41803</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>1041</v>
+      </c>
+      <c r="B35">
+        <v>597</v>
+      </c>
+      <c r="C35">
+        <v>51</v>
+      </c>
+      <c r="D35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="1">
+        <v>41324</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>965</v>
+      </c>
+      <c r="B36">
+        <v>952</v>
+      </c>
+      <c r="C36">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="1">
+        <v>41731</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>426</v>
+      </c>
+      <c r="B37">
+        <v>1093</v>
+      </c>
+      <c r="C37">
+        <v>328</v>
+      </c>
+      <c r="D37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="1">
+        <v>41136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>799</v>
+      </c>
+      <c r="B38">
+        <v>542</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="1">
+        <v>40933</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>1196</v>
+      </c>
+      <c r="B39">
+        <v>355</v>
+      </c>
+      <c r="C39">
+        <v>430</v>
+      </c>
+      <c r="D39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="1">
+        <v>41390</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>999</v>
+      </c>
+      <c r="B40">
+        <v>365</v>
+      </c>
+      <c r="C40">
+        <v>14</v>
+      </c>
+      <c r="D40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="1">
+        <v>41292</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>1134</v>
+      </c>
+      <c r="B41">
+        <v>36</v>
+      </c>
+      <c r="C41">
+        <v>233</v>
+      </c>
+      <c r="D41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" s="1">
+        <v>40942</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>30</v>
+      </c>
+      <c r="B42">
+        <v>126</v>
+      </c>
+      <c r="C42">
+        <v>69</v>
+      </c>
+      <c r="D42" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" s="1">
+        <v>41064</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>397</v>
+      </c>
+      <c r="B43">
+        <v>999</v>
+      </c>
+      <c r="C43">
+        <v>52</v>
+      </c>
+      <c r="D43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="1">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>1198</v>
+      </c>
+      <c r="B44">
+        <v>600</v>
+      </c>
+      <c r="C44">
+        <v>60</v>
+      </c>
+      <c r="D44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="1">
+        <v>41439</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>711</v>
+      </c>
+      <c r="B45">
+        <v>279</v>
+      </c>
+      <c r="C45">
+        <v>45</v>
+      </c>
+      <c r="D45" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="1">
+        <v>41170</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>958</v>
+      </c>
+      <c r="B46">
+        <v>935</v>
+      </c>
+      <c r="C46">
+        <v>52</v>
+      </c>
+      <c r="D46" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46" s="1">
+        <v>41236</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>594</v>
+      </c>
+      <c r="B47">
+        <v>287</v>
+      </c>
+      <c r="C47">
+        <v>62</v>
+      </c>
+      <c r="D47" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" s="1">
+        <v>40956</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>914</v>
+      </c>
+      <c r="B48">
+        <v>435</v>
+      </c>
+      <c r="C48">
+        <v>30</v>
+      </c>
+      <c r="D48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="1">
+        <v>41011</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>1111</v>
+      </c>
+      <c r="B49">
+        <v>959</v>
+      </c>
+      <c r="C49">
+        <v>9</v>
+      </c>
+      <c r="D49" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" s="1">
+        <v>40969</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>643</v>
+      </c>
+      <c r="B50">
+        <v>606</v>
+      </c>
+      <c r="C50">
+        <v>56</v>
+      </c>
+      <c r="D50" t="s">
+        <v>51</v>
+      </c>
+      <c r="E50" s="1">
+        <v>41552</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>160</v>
+      </c>
+      <c r="B51">
+        <v>184</v>
+      </c>
+      <c r="C51">
+        <v>9</v>
+      </c>
+      <c r="D51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" s="1">
+        <v>41802</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>324</v>
+      </c>
+      <c r="B52">
+        <v>662</v>
+      </c>
+      <c r="C52">
+        <v>52</v>
+      </c>
+      <c r="D52" t="s">
+        <v>53</v>
+      </c>
+      <c r="E52" s="1">
+        <v>41267</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>1036</v>
+      </c>
+      <c r="B53">
+        <v>315</v>
+      </c>
+      <c r="C53">
+        <v>53</v>
+      </c>
+      <c r="D53" t="s">
+        <v>54</v>
+      </c>
+      <c r="E53" s="1">
+        <v>41558</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>166</v>
+      </c>
+      <c r="B54">
+        <v>728</v>
+      </c>
+      <c r="C54">
+        <v>58</v>
+      </c>
+      <c r="D54" t="s">
+        <v>55</v>
+      </c>
+      <c r="E54" s="1">
+        <v>41056</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>614</v>
+      </c>
+      <c r="B55">
+        <v>442</v>
+      </c>
+      <c r="C55">
+        <v>339</v>
+      </c>
+      <c r="D55" t="s">
+        <v>56</v>
+      </c>
+      <c r="E55" s="1">
+        <v>41077</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>390</v>
+      </c>
+      <c r="B56">
+        <v>292</v>
+      </c>
+      <c r="C56">
+        <v>667</v>
+      </c>
+      <c r="D56" t="s">
+        <v>57</v>
+      </c>
+      <c r="E56" s="1">
+        <v>41579</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>217</v>
+      </c>
+      <c r="B57">
+        <v>545</v>
+      </c>
+      <c r="C57">
+        <v>536</v>
+      </c>
+      <c r="D57" t="s">
+        <v>58</v>
+      </c>
+      <c r="E57" s="1">
+        <v>41491</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>155</v>
+      </c>
+      <c r="B58">
+        <v>801</v>
+      </c>
+      <c r="C58">
+        <v>348</v>
+      </c>
+      <c r="D58" t="s">
+        <v>59</v>
+      </c>
+      <c r="E58" s="1">
+        <v>41445</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>770</v>
+      </c>
+      <c r="B59">
+        <v>32</v>
+      </c>
+      <c r="C59">
+        <v>271</v>
+      </c>
+      <c r="D59" t="s">
+        <v>60</v>
+      </c>
+      <c r="E59" s="1">
+        <v>41661</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>892</v>
+      </c>
+      <c r="B60">
+        <v>60</v>
+      </c>
+      <c r="C60">
+        <v>39</v>
+      </c>
+      <c r="D60" t="s">
+        <v>61</v>
+      </c>
+      <c r="E60" s="1">
+        <v>41928</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>92</v>
+      </c>
+      <c r="B61">
+        <v>279</v>
+      </c>
+      <c r="C61">
+        <v>56</v>
+      </c>
+      <c r="D61" t="s">
+        <v>62</v>
+      </c>
+      <c r="E61" s="1">
+        <v>41507</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>1098</v>
+      </c>
+      <c r="B62">
+        <v>591</v>
+      </c>
+      <c r="C62">
+        <v>27</v>
+      </c>
+      <c r="D62" t="s">
+        <v>63</v>
+      </c>
+      <c r="E62" s="1">
+        <v>41364</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>684</v>
+      </c>
+      <c r="B63">
+        <v>676</v>
+      </c>
+      <c r="C63">
+        <v>541</v>
+      </c>
+      <c r="D63" t="s">
+        <v>64</v>
+      </c>
+      <c r="E63" s="1">
+        <v>41532</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>147</v>
+      </c>
+      <c r="B64">
+        <v>111</v>
+      </c>
+      <c r="C64">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>65</v>
+      </c>
+      <c r="E64" s="1">
+        <v>41705</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>110</v>
+      </c>
+      <c r="B65">
+        <v>156</v>
+      </c>
+      <c r="C65">
+        <v>203</v>
+      </c>
+      <c r="D65" t="s">
+        <v>66</v>
+      </c>
+      <c r="E65" s="1">
+        <v>41044</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>394</v>
+      </c>
+      <c r="B66">
+        <v>250</v>
+      </c>
+      <c r="C66">
+        <v>547</v>
+      </c>
+      <c r="D66" t="s">
+        <v>67</v>
+      </c>
+      <c r="E66" s="1">
+        <v>41384</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>128</v>
+      </c>
+      <c r="B67">
+        <v>663</v>
+      </c>
+      <c r="C67">
+        <v>46</v>
+      </c>
+      <c r="D67" t="s">
+        <v>68</v>
+      </c>
+      <c r="E67" s="1">
+        <v>41961</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>1029</v>
+      </c>
+      <c r="B68">
+        <v>402</v>
+      </c>
+      <c r="C68">
+        <v>315</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="1">
+        <v>41313</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>682</v>
+      </c>
+      <c r="B69">
+        <v>601</v>
+      </c>
+      <c r="C69">
+        <v>250</v>
+      </c>
+      <c r="D69" t="s">
+        <v>70</v>
+      </c>
+      <c r="E69" s="1">
+        <v>41838</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>1195</v>
+      </c>
+      <c r="B70">
+        <v>846</v>
+      </c>
+      <c r="C70">
+        <v>52</v>
+      </c>
+      <c r="D70" t="s">
+        <v>71</v>
+      </c>
+      <c r="E70" s="1">
+        <v>41173</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>1025</v>
+      </c>
+      <c r="B71">
+        <v>955</v>
+      </c>
+      <c r="C71">
+        <v>15</v>
+      </c>
+      <c r="D71" t="s">
+        <v>72</v>
+      </c>
+      <c r="E71" s="1">
+        <v>40949</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>587</v>
+      </c>
+      <c r="B72">
+        <v>877</v>
+      </c>
+      <c r="C72">
+        <v>32</v>
+      </c>
+      <c r="D72" t="s">
+        <v>73</v>
+      </c>
+      <c r="E72" s="1">
+        <v>41807</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>355</v>
+      </c>
+      <c r="B73">
+        <v>81</v>
+      </c>
+      <c r="C73">
+        <v>272</v>
+      </c>
+      <c r="D73" t="s">
+        <v>74</v>
+      </c>
+      <c r="E73" s="1">
+        <v>41593</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>811</v>
+      </c>
+      <c r="B74">
+        <v>167</v>
+      </c>
+      <c r="C74">
+        <v>66</v>
+      </c>
+      <c r="D74" t="s">
+        <v>75</v>
+      </c>
+      <c r="E74" s="1">
+        <v>41349</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>1175</v>
+      </c>
+      <c r="B75">
+        <v>716</v>
+      </c>
+      <c r="C75">
+        <v>634</v>
+      </c>
+      <c r="D75" t="s">
+        <v>76</v>
+      </c>
+      <c r="E75" s="1">
+        <v>41290</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>382</v>
+      </c>
+      <c r="B76">
+        <v>98</v>
+      </c>
+      <c r="C76">
+        <v>612</v>
+      </c>
+      <c r="D76" t="s">
+        <v>77</v>
+      </c>
+      <c r="E76" s="1">
+        <v>41176</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>164</v>
+      </c>
+      <c r="B77">
+        <v>1157</v>
+      </c>
+      <c r="C77">
+        <v>369</v>
+      </c>
+      <c r="D77" t="s">
+        <v>78</v>
+      </c>
+      <c r="E77" s="1">
+        <v>41951</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>1051</v>
+      </c>
+      <c r="B78">
+        <v>580</v>
+      </c>
+      <c r="C78">
+        <v>161</v>
+      </c>
+      <c r="D78" t="s">
+        <v>79</v>
+      </c>
+      <c r="E78" s="1">
+        <v>41131</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>125</v>
+      </c>
+      <c r="B79">
+        <v>142</v>
+      </c>
+      <c r="C79">
+        <v>54</v>
+      </c>
+      <c r="D79" t="s">
+        <v>80</v>
+      </c>
+      <c r="E79" s="1">
+        <v>41869</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>136</v>
+      </c>
+      <c r="B80">
+        <v>318</v>
+      </c>
+      <c r="C80">
+        <v>45</v>
+      </c>
+      <c r="D80" t="s">
+        <v>81</v>
+      </c>
+      <c r="E80" s="1">
+        <v>41141</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>297</v>
+      </c>
+      <c r="B81">
+        <v>537</v>
+      </c>
+      <c r="C81">
+        <v>576</v>
+      </c>
+      <c r="D81" t="s">
+        <v>82</v>
+      </c>
+      <c r="E81" s="1">
+        <v>41324</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>1008</v>
+      </c>
+      <c r="B82">
+        <v>624</v>
+      </c>
+      <c r="C82">
+        <v>344</v>
+      </c>
+      <c r="D82" t="s">
+        <v>83</v>
+      </c>
+      <c r="E82" s="1">
+        <v>41094</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>587</v>
+      </c>
+      <c r="B83">
+        <v>174</v>
+      </c>
+      <c r="C83">
+        <v>64</v>
+      </c>
+      <c r="D83" t="s">
+        <v>84</v>
+      </c>
+      <c r="E83" s="1">
+        <v>41080</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>998</v>
+      </c>
+      <c r="B84">
+        <v>118</v>
+      </c>
+      <c r="C84">
+        <v>6</v>
+      </c>
+      <c r="D84" t="s">
+        <v>85</v>
+      </c>
+      <c r="E84" s="1">
+        <v>42009</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>877</v>
+      </c>
+      <c r="B85">
+        <v>847</v>
+      </c>
+      <c r="C85">
+        <v>23</v>
+      </c>
+      <c r="D85" t="s">
+        <v>86</v>
+      </c>
+      <c r="E85" s="1">
+        <v>41109</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <v>1134</v>
+      </c>
+      <c r="B86">
+        <v>1134</v>
+      </c>
+      <c r="C86">
+        <v>28</v>
+      </c>
+      <c r="D86" t="s">
+        <v>87</v>
+      </c>
+      <c r="E86" s="1">
+        <v>41226</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
+        <v>188</v>
+      </c>
+      <c r="B87">
+        <v>87</v>
+      </c>
+      <c r="C87">
+        <v>20</v>
+      </c>
+      <c r="D87" t="s">
+        <v>88</v>
+      </c>
+      <c r="E87" s="1">
+        <v>41547</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>701</v>
+      </c>
+      <c r="B88">
+        <v>221</v>
+      </c>
+      <c r="C88">
+        <v>54</v>
+      </c>
+      <c r="D88" t="s">
+        <v>89</v>
+      </c>
+      <c r="E88" s="1">
+        <v>41667</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>615</v>
+      </c>
+      <c r="B89">
+        <v>759</v>
+      </c>
+      <c r="C89">
+        <v>41</v>
+      </c>
+      <c r="D89" t="s">
+        <v>90</v>
+      </c>
+      <c r="E89" s="1">
+        <v>41304</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>645</v>
+      </c>
+      <c r="B90">
+        <v>527</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
+        <v>91</v>
+      </c>
+      <c r="E90" s="1">
+        <v>41755</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>203</v>
+      </c>
+      <c r="B91">
+        <v>802</v>
+      </c>
+      <c r="C91">
+        <v>50</v>
+      </c>
+      <c r="D91" t="s">
+        <v>92</v>
+      </c>
+      <c r="E91" s="1">
+        <v>41736</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92">
+        <v>605</v>
+      </c>
+      <c r="B92">
+        <v>189</v>
+      </c>
+      <c r="C92">
+        <v>58</v>
+      </c>
+      <c r="D92" t="s">
+        <v>93</v>
+      </c>
+      <c r="E92" s="1">
+        <v>41888</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <v>477</v>
+      </c>
+      <c r="B93">
+        <v>197</v>
+      </c>
+      <c r="C93">
+        <v>395</v>
+      </c>
+      <c r="D93" t="s">
+        <v>94</v>
+      </c>
+      <c r="E93" s="1">
+        <v>41643</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
+        <v>159</v>
+      </c>
+      <c r="B94">
+        <v>399</v>
+      </c>
+      <c r="C94">
+        <v>44</v>
+      </c>
+      <c r="D94" t="s">
+        <v>95</v>
+      </c>
+      <c r="E94" s="1">
+        <v>41345</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <v>539</v>
+      </c>
+      <c r="B95">
+        <v>654</v>
+      </c>
+      <c r="C95">
+        <v>52</v>
+      </c>
+      <c r="D95" t="s">
+        <v>96</v>
+      </c>
+      <c r="E95" s="1">
+        <v>41214</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>780</v>
+      </c>
+      <c r="B96">
+        <v>678</v>
+      </c>
+      <c r="C96">
+        <v>36</v>
+      </c>
+      <c r="D96" t="s">
+        <v>97</v>
+      </c>
+      <c r="E96" s="1">
+        <v>41609</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>382</v>
+      </c>
+      <c r="B97">
+        <v>407</v>
+      </c>
+      <c r="C97">
+        <v>34</v>
+      </c>
+      <c r="D97" t="s">
+        <v>98</v>
+      </c>
+      <c r="E97" s="1">
+        <v>42004</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
+        <v>444</v>
+      </c>
+      <c r="B98">
+        <v>335</v>
+      </c>
+      <c r="C98">
+        <v>67</v>
+      </c>
+      <c r="D98" t="s">
+        <v>99</v>
+      </c>
+      <c r="E98" s="1">
+        <v>41216</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <v>68</v>
+      </c>
+      <c r="B99">
+        <v>1194</v>
+      </c>
+      <c r="C99">
+        <v>669</v>
+      </c>
+      <c r="D99" t="s">
+        <v>100</v>
+      </c>
+      <c r="E99" s="1">
+        <v>41613</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
+        <v>513</v>
+      </c>
+      <c r="B100">
+        <v>699</v>
+      </c>
+      <c r="C100">
+        <v>47</v>
+      </c>
+      <c r="D100" t="s">
+        <v>101</v>
+      </c>
+      <c r="E100" s="1">
+        <v>41512</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
+        <v>168</v>
+      </c>
+      <c r="B101">
+        <v>108</v>
+      </c>
+      <c r="C101">
+        <v>357</v>
+      </c>
+      <c r="D101" t="s">
+        <v>102</v>
+      </c>
+      <c r="E101" s="1">
+        <v>41603</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
+        <v>139</v>
+      </c>
+      <c r="B102">
+        <v>647</v>
+      </c>
+      <c r="C102">
+        <v>41</v>
+      </c>
+      <c r="D102" t="s">
+        <v>103</v>
+      </c>
+      <c r="E102" s="1">
+        <v>41001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103">
+        <v>988</v>
+      </c>
+      <c r="B103">
+        <v>444</v>
+      </c>
+      <c r="C103">
+        <v>47</v>
+      </c>
+      <c r="D103" t="s">
+        <v>104</v>
+      </c>
+      <c r="E103" s="1">
+        <v>40981</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104">
+        <v>602</v>
+      </c>
+      <c r="B104">
+        <v>95</v>
+      </c>
+      <c r="C104">
+        <v>45</v>
+      </c>
+      <c r="D104" t="s">
+        <v>105</v>
+      </c>
+      <c r="E104" s="1">
+        <v>41906</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105">
+        <v>543</v>
+      </c>
+      <c r="B105">
+        <v>1010</v>
+      </c>
+      <c r="C105">
+        <v>25</v>
+      </c>
+      <c r="D105" t="s">
+        <v>106</v>
+      </c>
+      <c r="E105" s="1">
+        <v>41004</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106">
+        <v>900</v>
+      </c>
+      <c r="B106">
+        <v>776</v>
+      </c>
+      <c r="C106">
+        <v>69</v>
+      </c>
+      <c r="D106" t="s">
+        <v>107</v>
+      </c>
+      <c r="E106" s="1">
+        <v>40957</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107">
+        <v>19</v>
+      </c>
+      <c r="B107">
+        <v>144</v>
+      </c>
+      <c r="C107">
+        <v>519</v>
+      </c>
+      <c r="D107" t="s">
+        <v>108</v>
+      </c>
+      <c r="E107" s="1">
+        <v>41820</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108">
+        <v>845</v>
+      </c>
+      <c r="B108">
+        <v>399</v>
+      </c>
+      <c r="C108">
+        <v>28</v>
+      </c>
+      <c r="D108" t="s">
+        <v>109</v>
+      </c>
+      <c r="E108" s="1">
+        <v>41673</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109">
+        <v>440</v>
+      </c>
+      <c r="B109">
+        <v>490</v>
+      </c>
+      <c r="C109">
+        <v>566</v>
+      </c>
+      <c r="D109" t="s">
+        <v>110</v>
+      </c>
+      <c r="E109" s="1">
+        <v>41115</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110">
+        <v>1071</v>
+      </c>
+      <c r="B110">
+        <v>782</v>
+      </c>
+      <c r="C110">
+        <v>60</v>
+      </c>
+      <c r="D110" t="s">
+        <v>111</v>
+      </c>
+      <c r="E110" s="1">
+        <v>41407</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111">
+        <v>120</v>
+      </c>
+      <c r="B111">
+        <v>963</v>
+      </c>
+      <c r="C111">
+        <v>286</v>
+      </c>
+      <c r="D111" t="s">
+        <v>112</v>
+      </c>
+      <c r="E111" s="1">
+        <v>41632</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112">
+        <v>702</v>
+      </c>
+      <c r="B112">
+        <v>1030</v>
+      </c>
+      <c r="C112">
+        <v>52</v>
+      </c>
+      <c r="D112" t="s">
+        <v>113</v>
+      </c>
+      <c r="E112" s="1">
+        <v>41681</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113">
+        <v>795</v>
+      </c>
+      <c r="B113">
+        <v>993</v>
+      </c>
+      <c r="C113">
+        <v>319</v>
+      </c>
+      <c r="D113" t="s">
+        <v>114</v>
+      </c>
+      <c r="E113" s="1">
+        <v>41848</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114">
+        <v>1083</v>
+      </c>
+      <c r="B114">
+        <v>1174</v>
+      </c>
+      <c r="C114">
+        <v>63</v>
+      </c>
+      <c r="D114" t="s">
+        <v>115</v>
+      </c>
+      <c r="E114" s="1">
+        <v>41974</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115">
+        <v>207</v>
+      </c>
+      <c r="B115">
+        <v>1161</v>
+      </c>
+      <c r="C115">
+        <v>468</v>
+      </c>
+      <c r="D115" t="s">
+        <v>116</v>
+      </c>
+      <c r="E115" s="1">
+        <v>41884</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116">
+        <v>339</v>
+      </c>
+      <c r="B116">
+        <v>782</v>
+      </c>
+      <c r="C116">
+        <v>67</v>
+      </c>
+      <c r="D116" t="s">
+        <v>117</v>
+      </c>
+      <c r="E116" s="1">
+        <v>41796</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117">
+        <v>821</v>
+      </c>
+      <c r="B117">
+        <v>495</v>
+      </c>
+      <c r="C117">
+        <v>63</v>
+      </c>
+      <c r="D117" t="s">
+        <v>118</v>
+      </c>
+      <c r="E117" s="1">
+        <v>41395</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118">
+        <v>724</v>
+      </c>
+      <c r="B118">
+        <v>198</v>
+      </c>
+      <c r="C118">
+        <v>3</v>
+      </c>
+      <c r="D118" t="s">
+        <v>119</v>
+      </c>
+      <c r="E118" s="1">
+        <v>41705</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119">
+        <v>514</v>
+      </c>
+      <c r="B119">
+        <v>754</v>
+      </c>
+      <c r="C119">
+        <v>522</v>
+      </c>
+      <c r="D119" t="s">
+        <v>120</v>
+      </c>
+      <c r="E119" s="1">
+        <v>41507</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120">
+        <v>358</v>
+      </c>
+      <c r="B120">
+        <v>276</v>
+      </c>
+      <c r="C120">
+        <v>329</v>
+      </c>
+      <c r="D120" t="s">
+        <v>121</v>
+      </c>
+      <c r="E120" s="1">
+        <v>41461</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121">
+        <v>610</v>
+      </c>
+      <c r="B121">
+        <v>795</v>
+      </c>
+      <c r="C121">
+        <v>43</v>
+      </c>
+      <c r="D121" t="s">
+        <v>122</v>
+      </c>
+      <c r="E121" s="1">
+        <v>41303</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122">
+        <v>1070</v>
+      </c>
+      <c r="B122">
+        <v>1131</v>
+      </c>
+      <c r="C122">
+        <v>5</v>
+      </c>
+      <c r="D122" t="s">
+        <v>123</v>
+      </c>
+      <c r="E122" s="1">
+        <v>41141</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123">
+        <v>1148</v>
+      </c>
+      <c r="B123">
+        <v>444</v>
+      </c>
+      <c r="C123">
+        <v>698</v>
+      </c>
+      <c r="D123" t="s">
+        <v>124</v>
+      </c>
+      <c r="E123" s="1">
+        <v>41128</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124">
+        <v>285</v>
+      </c>
+      <c r="B124">
+        <v>654</v>
+      </c>
+      <c r="C124">
+        <v>27</v>
+      </c>
+      <c r="D124" t="s">
+        <v>125</v>
+      </c>
+      <c r="E124" s="1">
+        <v>41418</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125">
+        <v>934</v>
+      </c>
+      <c r="B125">
+        <v>503</v>
+      </c>
+      <c r="C125">
+        <v>22</v>
+      </c>
+      <c r="D125" t="s">
+        <v>126</v>
+      </c>
+      <c r="E125" s="1">
+        <v>41631</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126">
+        <v>351</v>
+      </c>
+      <c r="B126">
+        <v>276</v>
+      </c>
+      <c r="C126">
+        <v>404</v>
+      </c>
+      <c r="D126" t="s">
+        <v>127</v>
+      </c>
+      <c r="E126" s="1">
+        <v>40969</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127">
+        <v>538</v>
+      </c>
+      <c r="B127">
+        <v>1180</v>
+      </c>
+      <c r="C127">
+        <v>436</v>
+      </c>
+      <c r="D127" t="s">
+        <v>128</v>
+      </c>
+      <c r="E127" s="1">
+        <v>42037</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128">
+        <v>905</v>
+      </c>
+      <c r="B128">
+        <v>861</v>
+      </c>
+      <c r="C128">
+        <v>63</v>
+      </c>
+      <c r="D128" t="s">
+        <v>129</v>
+      </c>
+      <c r="E128" s="1">
+        <v>41108</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129">
+        <v>247</v>
+      </c>
+      <c r="B129">
+        <v>993</v>
+      </c>
+      <c r="C129">
+        <v>17</v>
+      </c>
+      <c r="D129" t="s">
+        <v>130</v>
+      </c>
+      <c r="E129" s="1">
+        <v>41885</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130">
+        <v>363</v>
+      </c>
+      <c r="B130">
+        <v>218</v>
+      </c>
+      <c r="C130">
+        <v>231</v>
+      </c>
+      <c r="D130" t="s">
+        <v>131</v>
+      </c>
+      <c r="E130" s="1">
+        <v>41421</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131">
+        <v>210</v>
+      </c>
+      <c r="B131">
+        <v>375</v>
+      </c>
+      <c r="C131">
+        <v>49</v>
+      </c>
+      <c r="D131" t="s">
+        <v>132</v>
+      </c>
+      <c r="E131" s="1">
+        <v>41054</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132">
+        <v>527</v>
+      </c>
+      <c r="B132">
+        <v>1096</v>
+      </c>
+      <c r="C132">
+        <v>67</v>
+      </c>
+      <c r="D132" t="s">
+        <v>133</v>
+      </c>
+      <c r="E132" s="1">
+        <v>41428</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133">
+        <v>230</v>
+      </c>
+      <c r="B133">
+        <v>852</v>
+      </c>
+      <c r="C133">
+        <v>437</v>
+      </c>
+      <c r="D133" t="s">
+        <v>134</v>
+      </c>
+      <c r="E133" s="1">
+        <v>41490</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134">
+        <v>899</v>
+      </c>
+      <c r="B134">
+        <v>800</v>
+      </c>
+      <c r="C134">
+        <v>643</v>
+      </c>
+      <c r="D134" t="s">
+        <v>135</v>
+      </c>
+      <c r="E134" s="1">
+        <v>41053</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135">
+        <v>351</v>
+      </c>
+      <c r="B135">
+        <v>273</v>
+      </c>
+      <c r="C135">
+        <v>212</v>
+      </c>
+      <c r="D135" t="s">
+        <v>136</v>
+      </c>
+      <c r="E135" s="1">
+        <v>41119</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136">
+        <v>327</v>
+      </c>
+      <c r="B136">
+        <v>502</v>
+      </c>
+      <c r="C136">
+        <v>10</v>
+      </c>
+      <c r="D136" t="s">
+        <v>137</v>
+      </c>
+      <c r="E136" s="1">
+        <v>41418</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137">
+        <v>157</v>
+      </c>
+      <c r="B137">
+        <v>653</v>
+      </c>
+      <c r="C137">
+        <v>38</v>
+      </c>
+      <c r="D137" t="s">
+        <v>138</v>
+      </c>
+      <c r="E137" s="1">
+        <v>41285</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138">
+        <v>816</v>
+      </c>
+      <c r="B138">
+        <v>424</v>
+      </c>
+      <c r="C138">
+        <v>13</v>
+      </c>
+      <c r="D138" t="s">
+        <v>139</v>
+      </c>
+      <c r="E138" s="1">
+        <v>41123</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139">
+        <v>361</v>
+      </c>
+      <c r="B139">
+        <v>513</v>
+      </c>
+      <c r="C139">
+        <v>335</v>
+      </c>
+      <c r="D139" t="s">
+        <v>140</v>
+      </c>
+      <c r="E139" s="1">
+        <v>41901</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140">
+        <v>1102</v>
+      </c>
+      <c r="B140">
+        <v>212</v>
+      </c>
+      <c r="C140">
+        <v>567</v>
+      </c>
+      <c r="D140" t="s">
+        <v>141</v>
+      </c>
+      <c r="E140" s="1">
+        <v>41717</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141">
+        <v>1135</v>
+      </c>
+      <c r="B141">
+        <v>402</v>
+      </c>
+      <c r="C141">
+        <v>152</v>
+      </c>
+      <c r="D141" t="s">
+        <v>142</v>
+      </c>
+      <c r="E141" s="1">
+        <v>42023</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142">
+        <v>159</v>
+      </c>
+      <c r="B142">
+        <v>663</v>
+      </c>
+      <c r="C142">
+        <v>30</v>
+      </c>
+      <c r="D142" t="s">
+        <v>143</v>
+      </c>
+      <c r="E142" s="1">
+        <v>41961</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143">
+        <v>995</v>
+      </c>
+      <c r="B143">
+        <v>787</v>
+      </c>
+      <c r="C143">
+        <v>662</v>
+      </c>
+      <c r="D143" t="s">
+        <v>144</v>
+      </c>
+      <c r="E143" s="1">
+        <v>40998</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144">
+        <v>607</v>
+      </c>
+      <c r="B144">
+        <v>60</v>
+      </c>
+      <c r="C144">
+        <v>505</v>
+      </c>
+      <c r="D144" t="s">
+        <v>145</v>
+      </c>
+      <c r="E144" s="1">
+        <v>41800</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145">
+        <v>484</v>
+      </c>
+      <c r="B145">
+        <v>939</v>
+      </c>
+      <c r="C145">
+        <v>44</v>
+      </c>
+      <c r="D145" t="s">
+        <v>146</v>
+      </c>
+      <c r="E145" s="1">
+        <v>41657</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146">
+        <v>699</v>
+      </c>
+      <c r="B146">
+        <v>494</v>
+      </c>
+      <c r="C146">
+        <v>43</v>
+      </c>
+      <c r="D146" t="s">
+        <v>147</v>
+      </c>
+      <c r="E146" s="1">
+        <v>42001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147">
+        <v>862</v>
+      </c>
+      <c r="B147">
+        <v>774</v>
+      </c>
+      <c r="C147">
+        <v>31</v>
+      </c>
+      <c r="D147" t="s">
+        <v>148</v>
+      </c>
+      <c r="E147" s="1">
+        <v>41470</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148">
+        <v>724</v>
+      </c>
+      <c r="B148">
+        <v>493</v>
+      </c>
+      <c r="C148">
+        <v>13</v>
+      </c>
+      <c r="D148" t="s">
+        <v>149</v>
+      </c>
+      <c r="E148" s="1">
+        <v>41961</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149">
+        <v>1029</v>
+      </c>
+      <c r="B149">
+        <v>3</v>
+      </c>
+      <c r="C149">
+        <v>613</v>
+      </c>
+      <c r="D149" t="s">
+        <v>150</v>
+      </c>
+      <c r="E149" s="1">
+        <v>41578</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150">
+        <v>887</v>
+      </c>
+      <c r="B150">
+        <v>1161</v>
+      </c>
+      <c r="C150">
+        <v>391</v>
+      </c>
+      <c r="D150" t="s">
+        <v>151</v>
+      </c>
+      <c r="E150" s="1">
+        <v>41442</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151">
+        <v>5</v>
+      </c>
+      <c r="B151">
+        <v>666</v>
+      </c>
+      <c r="C151">
+        <v>60</v>
+      </c>
+      <c r="D151" t="s">
+        <v>152</v>
+      </c>
+      <c r="E151" s="1">
+        <v>41771</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152">
+        <v>828</v>
+      </c>
+      <c r="B152">
+        <v>330</v>
+      </c>
+      <c r="C152">
+        <v>311</v>
+      </c>
+      <c r="D152" t="s">
+        <v>153</v>
+      </c>
+      <c r="E152" s="1">
+        <v>41777</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153">
+        <v>865</v>
+      </c>
+      <c r="B153">
+        <v>260</v>
+      </c>
+      <c r="C153">
+        <v>360</v>
+      </c>
+      <c r="D153" t="s">
+        <v>154</v>
+      </c>
+      <c r="E153" s="1">
+        <v>41357</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154">
+        <v>480</v>
+      </c>
+      <c r="B154">
+        <v>644</v>
+      </c>
+      <c r="C154">
+        <v>256</v>
+      </c>
+      <c r="D154" t="s">
+        <v>155</v>
+      </c>
+      <c r="E154" s="1">
+        <v>41557</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155">
+        <v>340</v>
+      </c>
+      <c r="B155">
+        <v>913</v>
+      </c>
+      <c r="C155">
+        <v>575</v>
+      </c>
+      <c r="D155" t="s">
+        <v>156</v>
+      </c>
+      <c r="E155" s="1">
+        <v>41446</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156">
+        <v>608</v>
+      </c>
+      <c r="B156">
+        <v>745</v>
+      </c>
+      <c r="C156">
+        <v>43</v>
+      </c>
+      <c r="D156" t="s">
+        <v>157</v>
+      </c>
+      <c r="E156" s="1">
+        <v>41646</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157">
+        <v>429</v>
+      </c>
+      <c r="B157">
+        <v>589</v>
+      </c>
+      <c r="C157">
+        <v>37</v>
+      </c>
+      <c r="D157" t="s">
+        <v>158</v>
+      </c>
+      <c r="E157" s="1">
+        <v>41753</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158">
+        <v>582</v>
+      </c>
+      <c r="B158">
+        <v>609</v>
+      </c>
+      <c r="C158">
+        <v>196</v>
+      </c>
+      <c r="D158" t="s">
+        <v>159</v>
+      </c>
+      <c r="E158" s="1">
+        <v>41983</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159">
+        <v>442</v>
+      </c>
+      <c r="B159">
+        <v>467</v>
+      </c>
+      <c r="C159">
+        <v>436</v>
+      </c>
+      <c r="D159" t="s">
+        <v>160</v>
+      </c>
+      <c r="E159" s="1">
+        <v>42021</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160">
+        <v>543</v>
+      </c>
+      <c r="B160">
+        <v>1102</v>
+      </c>
+      <c r="C160">
+        <v>10</v>
+      </c>
+      <c r="D160" t="s">
+        <v>161</v>
+      </c>
+      <c r="E160" s="1">
+        <v>41958</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161">
+        <v>395</v>
+      </c>
+      <c r="B161">
+        <v>442</v>
+      </c>
+      <c r="C161">
+        <v>471</v>
+      </c>
+      <c r="D161" t="s">
+        <v>162</v>
+      </c>
+      <c r="E161" s="1">
+        <v>41602</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162">
+        <v>279</v>
+      </c>
+      <c r="B162">
+        <v>891</v>
+      </c>
+      <c r="C162">
+        <v>41</v>
+      </c>
+      <c r="D162" t="s">
+        <v>163</v>
+      </c>
+      <c r="E162" s="1">
+        <v>41686</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163">
+        <v>786</v>
+      </c>
+      <c r="B163">
+        <v>814</v>
+      </c>
+      <c r="C163">
+        <v>64</v>
+      </c>
+      <c r="D163" t="s">
+        <v>164</v>
+      </c>
+      <c r="E163" s="1">
+        <v>41527</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164">
+        <v>53</v>
+      </c>
+      <c r="B164">
+        <v>602</v>
+      </c>
+      <c r="C164">
+        <v>671</v>
+      </c>
+      <c r="D164" t="s">
+        <v>165</v>
+      </c>
+      <c r="E164" s="1">
+        <v>41095</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165">
+        <v>858</v>
+      </c>
+      <c r="B165">
+        <v>1156</v>
+      </c>
+      <c r="C165">
+        <v>481</v>
+      </c>
+      <c r="D165" t="s">
+        <v>166</v>
+      </c>
+      <c r="E165" s="1">
+        <v>41439</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166">
+        <v>204</v>
+      </c>
+      <c r="B166">
+        <v>632</v>
+      </c>
+      <c r="C166">
+        <v>31</v>
+      </c>
+      <c r="D166" t="s">
+        <v>167</v>
+      </c>
+      <c r="E166" s="1">
+        <v>41788</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167">
+        <v>818</v>
+      </c>
+      <c r="B167">
+        <v>410</v>
+      </c>
+      <c r="C167">
+        <v>674</v>
+      </c>
+      <c r="D167" t="s">
+        <v>168</v>
+      </c>
+      <c r="E167" s="1">
+        <v>41941</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168">
+        <v>193</v>
+      </c>
+      <c r="B168">
+        <v>1107</v>
+      </c>
+      <c r="C168">
+        <v>2</v>
+      </c>
+      <c r="D168" t="s">
+        <v>169</v>
+      </c>
+      <c r="E168" s="1">
+        <v>41658</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169">
+        <v>1049</v>
+      </c>
+      <c r="B169">
+        <v>125</v>
+      </c>
+      <c r="C169">
+        <v>28</v>
+      </c>
+      <c r="D169" t="s">
+        <v>170</v>
+      </c>
+      <c r="E169" s="1">
+        <v>41915</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170">
+        <v>266</v>
+      </c>
+      <c r="B170">
+        <v>911</v>
+      </c>
+      <c r="C170">
+        <v>23</v>
+      </c>
+      <c r="D170" t="s">
+        <v>171</v>
+      </c>
+      <c r="E170" s="1">
+        <v>41029</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171">
+        <v>724</v>
+      </c>
+      <c r="B171">
+        <v>1077</v>
+      </c>
+      <c r="C171">
+        <v>489</v>
+      </c>
+      <c r="D171" t="s">
+        <v>172</v>
+      </c>
+      <c r="E171" s="1">
+        <v>41813</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172">
+        <v>1009</v>
+      </c>
+      <c r="B172">
+        <v>1181</v>
+      </c>
+      <c r="C172">
+        <v>22</v>
+      </c>
+      <c r="D172" t="s">
+        <v>173</v>
+      </c>
+      <c r="E172" s="1">
+        <v>42028</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173">
+        <v>73</v>
+      </c>
+      <c r="B173">
+        <v>407</v>
+      </c>
+      <c r="C173">
+        <v>57</v>
+      </c>
+      <c r="D173" t="s">
+        <v>174</v>
+      </c>
+      <c r="E173" s="1">
+        <v>41726</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174">
+        <v>1060</v>
+      </c>
+      <c r="B174">
+        <v>670</v>
+      </c>
+      <c r="C174">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s">
+        <v>175</v>
+      </c>
+      <c r="E174" s="1">
+        <v>41852</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175">
+        <v>84</v>
+      </c>
+      <c r="B175">
+        <v>1145</v>
+      </c>
+      <c r="C175">
+        <v>508</v>
+      </c>
+      <c r="D175" t="s">
+        <v>176</v>
+      </c>
+      <c r="E175" s="1">
+        <v>41132</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176">
+        <v>899</v>
+      </c>
+      <c r="B176">
+        <v>28</v>
+      </c>
+      <c r="C176">
+        <v>95</v>
+      </c>
+      <c r="D176" t="s">
+        <v>177</v>
+      </c>
+      <c r="E176" s="1">
+        <v>41559</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177">
+        <v>630</v>
+      </c>
+      <c r="B177">
+        <v>361</v>
+      </c>
+      <c r="C177">
+        <v>693</v>
+      </c>
+      <c r="D177" t="s">
+        <v>178</v>
+      </c>
+      <c r="E177" s="1">
+        <v>41838</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178">
+        <v>623</v>
+      </c>
+      <c r="B178">
+        <v>264</v>
+      </c>
+      <c r="C178">
+        <v>28</v>
+      </c>
+      <c r="D178" t="s">
+        <v>179</v>
+      </c>
+      <c r="E178" s="1">
+        <v>41460</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179">
+        <v>155</v>
+      </c>
+      <c r="B179">
+        <v>655</v>
+      </c>
+      <c r="C179">
+        <v>25</v>
+      </c>
+      <c r="D179" t="s">
+        <v>180</v>
+      </c>
+      <c r="E179" s="1">
+        <v>41390</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180">
+        <v>472</v>
+      </c>
+      <c r="B180">
+        <v>318</v>
+      </c>
+      <c r="C180">
+        <v>45</v>
+      </c>
+      <c r="D180" t="s">
+        <v>181</v>
+      </c>
+      <c r="E180" s="1">
+        <v>40982</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181">
+        <v>701</v>
+      </c>
+      <c r="B181">
+        <v>587</v>
+      </c>
+      <c r="C181">
+        <v>22</v>
+      </c>
+      <c r="D181" t="s">
+        <v>182</v>
+      </c>
+      <c r="E181" s="1">
+        <v>41323</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182">
+        <v>519</v>
+      </c>
+      <c r="B182">
+        <v>554</v>
+      </c>
+      <c r="C182">
+        <v>297</v>
+      </c>
+      <c r="D182" t="s">
+        <v>183</v>
+      </c>
+      <c r="E182" s="1">
+        <v>41424</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183">
+        <v>750</v>
+      </c>
+      <c r="B183">
+        <v>757</v>
+      </c>
+      <c r="C183">
+        <v>483</v>
+      </c>
+      <c r="D183" t="s">
+        <v>184</v>
+      </c>
+      <c r="E183" s="1">
+        <v>41674</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184">
+        <v>1102</v>
+      </c>
+      <c r="B184">
+        <v>349</v>
+      </c>
+      <c r="C184">
+        <v>20</v>
+      </c>
+      <c r="D184" t="s">
+        <v>185</v>
+      </c>
+      <c r="E184" s="1">
+        <v>41312</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185">
+        <v>786</v>
+      </c>
+      <c r="B185">
+        <v>777</v>
+      </c>
+      <c r="C185">
+        <v>341</v>
+      </c>
+      <c r="D185" t="s">
+        <v>186</v>
+      </c>
+      <c r="E185" s="1">
+        <v>41881</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186">
+        <v>371</v>
+      </c>
+      <c r="B186">
+        <v>1150</v>
+      </c>
+      <c r="C186">
+        <v>5</v>
+      </c>
+      <c r="D186" s="2">
+        <v>42021</v>
+      </c>
+      <c r="E186" s="1">
+        <v>41613</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187">
+        <v>202</v>
+      </c>
+      <c r="B187">
+        <v>476</v>
+      </c>
+      <c r="C187">
+        <v>172</v>
+      </c>
+      <c r="D187" t="s">
+        <v>187</v>
+      </c>
+      <c r="E187" s="1">
+        <v>41359</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188">
+        <v>704</v>
+      </c>
+      <c r="B188">
+        <v>997</v>
+      </c>
+      <c r="C188">
+        <v>122</v>
+      </c>
+      <c r="D188" t="s">
+        <v>188</v>
+      </c>
+      <c r="E188" s="1">
+        <v>41372</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189">
+        <v>554</v>
+      </c>
+      <c r="B189">
+        <v>366</v>
+      </c>
+      <c r="C189">
+        <v>11</v>
+      </c>
+      <c r="D189" t="s">
+        <v>189</v>
+      </c>
+      <c r="E189" s="1">
+        <v>41665</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190">
+        <v>6</v>
+      </c>
+      <c r="B190">
+        <v>555</v>
+      </c>
+      <c r="C190">
+        <v>9</v>
+      </c>
+      <c r="D190" t="s">
+        <v>190</v>
+      </c>
+      <c r="E190" s="1">
+        <v>41809</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191">
+        <v>1183</v>
+      </c>
+      <c r="B191">
+        <v>681</v>
+      </c>
+      <c r="C191">
+        <v>301</v>
+      </c>
+      <c r="D191" t="s">
+        <v>191</v>
+      </c>
+      <c r="E191" s="1">
+        <v>41907</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192">
+        <v>759</v>
+      </c>
+      <c r="B192">
+        <v>1121</v>
+      </c>
+      <c r="C192">
+        <v>668</v>
+      </c>
+      <c r="D192" t="s">
+        <v>192</v>
+      </c>
+      <c r="E192" s="1">
+        <v>41439</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193">
+        <v>75</v>
+      </c>
+      <c r="B193">
+        <v>122</v>
+      </c>
+      <c r="C193">
+        <v>150</v>
+      </c>
+      <c r="D193" t="s">
+        <v>193</v>
+      </c>
+      <c r="E193" s="1">
+        <v>41253</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194">
+        <v>288</v>
+      </c>
+      <c r="B194">
+        <v>154</v>
+      </c>
+      <c r="C194">
+        <v>190</v>
+      </c>
+      <c r="D194" t="s">
+        <v>194</v>
+      </c>
+      <c r="E194" s="1">
+        <v>41302</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195">
+        <v>1152</v>
+      </c>
+      <c r="B195">
+        <v>774</v>
+      </c>
+      <c r="C195">
+        <v>12</v>
+      </c>
+      <c r="D195" t="s">
+        <v>195</v>
+      </c>
+      <c r="E195" s="1">
+        <v>41315</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196">
+        <v>797</v>
+      </c>
+      <c r="B196">
+        <v>169</v>
+      </c>
+      <c r="C196">
+        <v>71</v>
+      </c>
+      <c r="D196" t="s">
+        <v>196</v>
+      </c>
+      <c r="E196" s="1">
+        <v>41940</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197">
+        <v>317</v>
+      </c>
+      <c r="B197">
+        <v>935</v>
+      </c>
+      <c r="C197">
+        <v>14</v>
+      </c>
+      <c r="D197" t="s">
+        <v>197</v>
+      </c>
+      <c r="E197" s="1">
+        <v>41747</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198">
+        <v>182</v>
+      </c>
+      <c r="B198">
+        <v>312</v>
+      </c>
+      <c r="C198">
+        <v>16</v>
+      </c>
+      <c r="D198" t="s">
+        <v>198</v>
+      </c>
+      <c r="E198" s="1">
+        <v>41429</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199">
+        <v>877</v>
+      </c>
+      <c r="B199">
+        <v>468</v>
+      </c>
+      <c r="C199">
+        <v>128</v>
+      </c>
+      <c r="D199" t="s">
+        <v>199</v>
+      </c>
+      <c r="E199" s="1">
+        <v>40945</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200">
+        <v>601</v>
+      </c>
+      <c r="B200">
+        <v>139</v>
+      </c>
+      <c r="C200">
+        <v>10</v>
+      </c>
+      <c r="D200" t="s">
+        <v>200</v>
+      </c>
+      <c r="E200" s="1">
+        <v>41043</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201">
+        <v>112</v>
+      </c>
+      <c r="B201">
+        <v>755</v>
+      </c>
+      <c r="C201">
+        <v>61</v>
+      </c>
+      <c r="D201" t="s">
+        <v>201</v>
+      </c>
+      <c r="E201" s="1">
+        <v>41775</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202">
+        <v>953</v>
+      </c>
+      <c r="B202">
+        <v>308</v>
+      </c>
+      <c r="C202">
+        <v>645</v>
+      </c>
+      <c r="D202" t="s">
+        <v>202</v>
+      </c>
+      <c r="E202" s="1">
+        <v>40990</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203">
+        <v>152</v>
+      </c>
+      <c r="B203">
+        <v>775</v>
+      </c>
+      <c r="C203">
+        <v>8</v>
+      </c>
+      <c r="D203" s="6">
+        <v>30590</v>
+      </c>
+      <c r="E203" s="1">
+        <v>41873</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204">
+        <v>606</v>
+      </c>
+      <c r="B204">
+        <v>193</v>
+      </c>
+      <c r="C204">
+        <v>443</v>
+      </c>
+      <c r="D204" t="s">
+        <v>203</v>
+      </c>
+      <c r="E204" s="1">
+        <v>42016</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205">
+        <v>12</v>
+      </c>
+      <c r="B205">
+        <v>657</v>
+      </c>
+      <c r="C205">
+        <v>298</v>
+      </c>
+      <c r="D205" t="s">
+        <v>204</v>
+      </c>
+      <c r="E205" s="1">
+        <v>41342</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206">
+        <v>386</v>
+      </c>
+      <c r="B206">
+        <v>1148</v>
+      </c>
+      <c r="C206">
+        <v>196</v>
+      </c>
+      <c r="D206" t="s">
+        <v>205</v>
+      </c>
+      <c r="E206" s="1">
+        <v>41162</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207">
+        <v>886</v>
+      </c>
+      <c r="B207">
+        <v>361</v>
+      </c>
+      <c r="C207">
+        <v>184</v>
+      </c>
+      <c r="D207" t="s">
+        <v>206</v>
+      </c>
+      <c r="E207" s="1">
+        <v>41217</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208">
+        <v>411</v>
+      </c>
+      <c r="B208">
+        <v>267</v>
+      </c>
+      <c r="C208">
+        <v>2</v>
+      </c>
+      <c r="D208" t="s">
+        <v>207</v>
+      </c>
+      <c r="E208" s="1">
+        <v>41383</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209">
+        <v>1102</v>
+      </c>
+      <c r="B209">
+        <v>580</v>
+      </c>
+      <c r="C209">
+        <v>600</v>
+      </c>
+      <c r="D209" t="s">
+        <v>208</v>
+      </c>
+      <c r="E209" s="1">
+        <v>41689</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210">
+        <v>561</v>
+      </c>
+      <c r="B210">
+        <v>316</v>
+      </c>
+      <c r="C210">
+        <v>178</v>
+      </c>
+      <c r="D210" t="s">
+        <v>209</v>
+      </c>
+      <c r="E210" s="1">
+        <v>41239</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211">
+        <v>21</v>
+      </c>
+      <c r="B211">
+        <v>507</v>
+      </c>
+      <c r="C211">
+        <v>62</v>
+      </c>
+      <c r="D211" t="s">
+        <v>210</v>
+      </c>
+      <c r="E211" s="1">
+        <v>42037</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212">
+        <v>270</v>
+      </c>
+      <c r="B212">
+        <v>760</v>
+      </c>
+      <c r="C212">
+        <v>29</v>
+      </c>
+      <c r="D212" t="s">
+        <v>211</v>
+      </c>
+      <c r="E212" s="1">
+        <v>41731</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213">
+        <v>625</v>
+      </c>
+      <c r="B213">
+        <v>955</v>
+      </c>
+      <c r="C213">
+        <v>31</v>
+      </c>
+      <c r="D213" t="s">
+        <v>212</v>
+      </c>
+      <c r="E213" s="1">
+        <v>41216</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214">
+        <v>484</v>
+      </c>
+      <c r="B214">
+        <v>299</v>
+      </c>
+      <c r="C214">
+        <v>10</v>
+      </c>
+      <c r="D214" t="s">
+        <v>213</v>
+      </c>
+      <c r="E214" s="1">
+        <v>42037</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215">
+        <v>1167</v>
+      </c>
+      <c r="B215">
+        <v>307</v>
+      </c>
+      <c r="C215">
+        <v>436</v>
+      </c>
+      <c r="D215" t="s">
+        <v>214</v>
+      </c>
+      <c r="E215" s="1">
+        <v>41189</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216">
+        <v>1005</v>
+      </c>
+      <c r="B216">
+        <v>663</v>
+      </c>
+      <c r="C216">
+        <v>52</v>
+      </c>
+      <c r="D216" t="s">
+        <v>215</v>
+      </c>
+      <c r="E216" s="1">
+        <v>40955</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217">
+        <v>1046</v>
+      </c>
+      <c r="B217">
+        <v>77</v>
+      </c>
+      <c r="C217">
+        <v>29</v>
+      </c>
+      <c r="D217" t="s">
+        <v>216</v>
+      </c>
+      <c r="E217" s="1">
+        <v>40921</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218">
+        <v>1151</v>
+      </c>
+      <c r="B218">
+        <v>197</v>
+      </c>
+      <c r="C218">
+        <v>535</v>
+      </c>
+      <c r="D218" t="s">
+        <v>217</v>
+      </c>
+      <c r="E218" s="1">
+        <v>41095</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219">
+        <v>355</v>
+      </c>
+      <c r="B219">
+        <v>887</v>
+      </c>
+      <c r="C219">
+        <v>40</v>
+      </c>
+      <c r="D219" t="s">
+        <v>218</v>
+      </c>
+      <c r="E219" s="1">
+        <v>41132</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220">
+        <v>850</v>
+      </c>
+      <c r="B220">
+        <v>857</v>
+      </c>
+      <c r="C220">
+        <v>637</v>
+      </c>
+      <c r="D220" t="s">
+        <v>219</v>
+      </c>
+      <c r="E220" s="1">
+        <v>42007</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221">
+        <v>1197</v>
+      </c>
+      <c r="B221">
+        <v>505</v>
+      </c>
+      <c r="C221">
+        <v>72</v>
+      </c>
+      <c r="D221" t="s">
+        <v>220</v>
+      </c>
+      <c r="E221" s="1">
+        <v>41498</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222">
+        <v>570</v>
+      </c>
+      <c r="B222">
+        <v>979</v>
+      </c>
+      <c r="C222">
+        <v>110</v>
+      </c>
+      <c r="D222" t="s">
+        <v>221</v>
+      </c>
+      <c r="E222" s="1">
+        <v>41818</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223">
+        <v>1027</v>
+      </c>
+      <c r="B223">
+        <v>1103</v>
+      </c>
+      <c r="C223">
+        <v>47</v>
+      </c>
+      <c r="D223" t="s">
+        <v>222</v>
+      </c>
+      <c r="E223" s="1">
+        <v>41716</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224">
+        <v>318</v>
+      </c>
+      <c r="B224">
+        <v>598</v>
+      </c>
+      <c r="C224">
+        <v>11</v>
+      </c>
+      <c r="D224" t="s">
+        <v>223</v>
+      </c>
+      <c r="E224" s="1">
+        <v>41373</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225">
+        <v>947</v>
+      </c>
+      <c r="B225">
+        <v>677</v>
+      </c>
+      <c r="C225">
+        <v>604</v>
+      </c>
+      <c r="D225" t="s">
+        <v>224</v>
+      </c>
+      <c r="E225" s="1">
+        <v>41793</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226">
+        <v>1103</v>
+      </c>
+      <c r="B226">
+        <v>350</v>
+      </c>
+      <c r="C226">
+        <v>39</v>
+      </c>
+      <c r="D226" t="s">
+        <v>225</v>
+      </c>
+      <c r="E226" s="1">
+        <v>41581</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227">
+        <v>603</v>
+      </c>
+      <c r="B227">
+        <v>557</v>
+      </c>
+      <c r="C227">
+        <v>65</v>
+      </c>
+      <c r="D227" t="s">
+        <v>226</v>
+      </c>
+      <c r="E227" s="1">
+        <v>41801</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228">
+        <v>1035</v>
+      </c>
+      <c r="B228">
+        <v>736</v>
+      </c>
+      <c r="C228">
+        <v>90</v>
+      </c>
+      <c r="D228" t="s">
+        <v>227</v>
+      </c>
+      <c r="E228" s="1">
+        <v>41743</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229">
+        <v>279</v>
+      </c>
+      <c r="B229">
+        <v>98</v>
+      </c>
+      <c r="C229">
+        <v>415</v>
+      </c>
+      <c r="D229" t="s">
+        <v>228</v>
+      </c>
+      <c r="E229" s="1">
+        <v>41758</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230">
+        <v>747</v>
+      </c>
+      <c r="B230">
+        <v>86</v>
+      </c>
+      <c r="C230">
+        <v>61</v>
+      </c>
+      <c r="D230" t="s">
+        <v>229</v>
+      </c>
+      <c r="E230" s="1">
+        <v>41953</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231">
+        <v>1076</v>
+      </c>
+      <c r="B231">
+        <v>828</v>
+      </c>
+      <c r="C231">
+        <v>618</v>
+      </c>
+      <c r="D231" t="s">
+        <v>230</v>
+      </c>
+      <c r="E231" s="1">
+        <v>41867</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232">
+        <v>828</v>
+      </c>
+      <c r="B232">
+        <v>760</v>
+      </c>
+      <c r="C232">
+        <v>42</v>
+      </c>
+      <c r="D232" t="s">
+        <v>231</v>
+      </c>
+      <c r="E232" s="1">
+        <v>41584</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233">
+        <v>260</v>
+      </c>
+      <c r="B233">
+        <v>377</v>
+      </c>
+      <c r="C233">
+        <v>155</v>
+      </c>
+      <c r="D233" t="s">
+        <v>232</v>
+      </c>
+      <c r="E233" s="1">
+        <v>41293</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234">
+        <v>1129</v>
+      </c>
+      <c r="B234">
+        <v>966</v>
+      </c>
+      <c r="C234">
+        <v>40</v>
+      </c>
+      <c r="D234" t="s">
+        <v>233</v>
+      </c>
+      <c r="E234" s="1">
+        <v>41618</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235">
+        <v>226</v>
+      </c>
+      <c r="B235">
+        <v>1005</v>
+      </c>
+      <c r="C235">
+        <v>29</v>
+      </c>
+      <c r="D235" t="s">
+        <v>234</v>
+      </c>
+      <c r="E235" s="1">
+        <v>41292</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236">
+        <v>638</v>
+      </c>
+      <c r="B236">
+        <v>715</v>
+      </c>
+      <c r="C236">
+        <v>12</v>
+      </c>
+      <c r="D236" t="s">
+        <v>235</v>
+      </c>
+      <c r="E236" s="1">
+        <v>41233</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237">
+        <v>634</v>
+      </c>
+      <c r="B237">
+        <v>1117</v>
+      </c>
+      <c r="C237">
+        <v>23</v>
+      </c>
+      <c r="D237" t="s">
+        <v>236</v>
+      </c>
+      <c r="E237" s="1">
+        <v>41118</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238">
+        <v>1065</v>
+      </c>
+      <c r="B238">
+        <v>802</v>
+      </c>
+      <c r="C238">
+        <v>600</v>
+      </c>
+      <c r="D238" t="s">
+        <v>237</v>
+      </c>
+      <c r="E238" s="1">
+        <v>42011</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239">
+        <v>164</v>
+      </c>
+      <c r="B239">
+        <v>936</v>
+      </c>
+      <c r="C239">
+        <v>41</v>
+      </c>
+      <c r="D239" t="s">
+        <v>238</v>
+      </c>
+      <c r="E239" s="1">
+        <v>41209</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240">
+        <v>25</v>
+      </c>
+      <c r="B240">
+        <v>953</v>
+      </c>
+      <c r="C240">
+        <v>37</v>
+      </c>
+      <c r="D240" t="s">
+        <v>239</v>
+      </c>
+      <c r="E240" s="1">
+        <v>41530</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241">
+        <v>484</v>
+      </c>
+      <c r="B241">
+        <v>952</v>
+      </c>
+      <c r="C241">
+        <v>43</v>
+      </c>
+      <c r="D241" t="s">
+        <v>240</v>
+      </c>
+      <c r="E241" s="1">
+        <v>42021</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242">
+        <v>49</v>
+      </c>
+      <c r="B242">
+        <v>283</v>
+      </c>
+      <c r="C242">
+        <v>8</v>
+      </c>
+      <c r="D242" t="s">
+        <v>241</v>
+      </c>
+      <c r="E242" s="1">
+        <v>41389</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243">
+        <v>1149</v>
+      </c>
+      <c r="B243">
+        <v>1188</v>
+      </c>
+      <c r="C243">
+        <v>544</v>
+      </c>
+      <c r="D243" t="s">
+        <v>242</v>
+      </c>
+      <c r="E243" s="1">
+        <v>41920</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244">
+        <v>413</v>
+      </c>
+      <c r="B244">
+        <v>1009</v>
+      </c>
+      <c r="C244">
+        <v>269</v>
+      </c>
+      <c r="D244" t="s">
+        <v>243</v>
+      </c>
+      <c r="E244" s="1">
+        <v>41607</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245">
+        <v>816</v>
+      </c>
+      <c r="B245">
+        <v>153</v>
+      </c>
+      <c r="C245">
+        <v>251</v>
+      </c>
+      <c r="D245" t="s">
+        <v>244</v>
+      </c>
+      <c r="E245" s="1">
+        <v>41851</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246">
+        <v>156</v>
+      </c>
+      <c r="B246">
+        <v>880</v>
+      </c>
+      <c r="C246">
+        <v>517</v>
+      </c>
+      <c r="D246" t="s">
+        <v>245</v>
+      </c>
+      <c r="E246" s="1">
+        <v>41938</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247">
+        <v>1043</v>
+      </c>
+      <c r="B247">
+        <v>994</v>
+      </c>
+      <c r="C247">
+        <v>511</v>
+      </c>
+      <c r="D247" t="s">
+        <v>246</v>
+      </c>
+      <c r="E247" s="1">
+        <v>41143</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248">
+        <v>1080</v>
+      </c>
+      <c r="B248">
+        <v>598</v>
+      </c>
+      <c r="C248">
+        <v>39</v>
+      </c>
+      <c r="D248" t="s">
+        <v>247</v>
+      </c>
+      <c r="E248" s="1">
+        <v>40944</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249">
+        <v>782</v>
+      </c>
+      <c r="B249">
+        <v>130</v>
+      </c>
+      <c r="C249">
+        <v>282</v>
+      </c>
+      <c r="D249" t="s">
+        <v>248</v>
+      </c>
+      <c r="E249" s="1">
+        <v>41186</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250">
+        <v>1069</v>
+      </c>
+      <c r="B250">
+        <v>693</v>
+      </c>
+      <c r="C250">
+        <v>284</v>
+      </c>
+      <c r="D250" t="s">
+        <v>249</v>
+      </c>
+      <c r="E250" s="1">
+        <v>41333</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251">
+        <v>1109</v>
+      </c>
+      <c r="B251">
+        <v>542</v>
+      </c>
+      <c r="C251">
+        <v>18</v>
+      </c>
+      <c r="D251" t="s">
+        <v>250</v>
+      </c>
+      <c r="E251" s="1">
+        <v>41400</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252">
+        <v>957</v>
+      </c>
+      <c r="B252">
+        <v>561</v>
+      </c>
+      <c r="C252">
+        <v>339</v>
+      </c>
+      <c r="D252" t="s">
+        <v>251</v>
+      </c>
+      <c r="E252" s="1">
+        <v>41456</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253">
+        <v>51</v>
+      </c>
+      <c r="B253">
+        <v>92</v>
+      </c>
+      <c r="C253">
+        <v>588</v>
+      </c>
+      <c r="D253" t="s">
+        <v>252</v>
+      </c>
+      <c r="E253" s="1">
+        <v>41603</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254">
+        <v>1145</v>
+      </c>
+      <c r="B254">
+        <v>625</v>
+      </c>
+      <c r="C254">
+        <v>51</v>
+      </c>
+      <c r="D254" t="s">
+        <v>253</v>
+      </c>
+      <c r="E254" s="1">
+        <v>40978</v>
       </c>
     </row>
   </sheetData>
